--- a/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
+++ b/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Новая папка\РТТ\1 ЕГЭ\Информатика\2021\20 вариантов\Информатика-ЕГЭ\9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Нечётные варианты" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -138,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -173,7 +168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -350,7 +345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -360,13 +355,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="25" width="7.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -439,8 +438,20 @@
       <c r="Y1" s="1">
         <v>0.95833333333333304</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="3">
+        <f>MAX(B2:Y92)</f>
+        <v>25.2</v>
+      </c>
+      <c r="AA1" s="3">
+        <f>AVERAGE(B2:Y92)</f>
+        <v>10.465338827838821</v>
+      </c>
+      <c r="AB1" s="3">
+        <f>Z1-AA1</f>
+        <v>14.734661172161179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43831</v>
       </c>
@@ -517,7 +528,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43832</v>
       </c>
@@ -594,7 +605,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43833</v>
       </c>
@@ -671,7 +682,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43834</v>
       </c>
@@ -748,7 +759,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43835</v>
       </c>
@@ -825,7 +836,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43836</v>
       </c>
@@ -902,7 +913,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43837</v>
       </c>
@@ -979,7 +990,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43838</v>
       </c>
@@ -1056,7 +1067,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43839</v>
       </c>
@@ -1133,7 +1144,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43840</v>
       </c>
@@ -1210,7 +1221,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43841</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43842</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43843</v>
       </c>
@@ -1441,7 +1452,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43844</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43845</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43846</v>
       </c>
@@ -1672,7 +1683,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43847</v>
       </c>
@@ -1749,7 +1760,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43848</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43849</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43850</v>
       </c>
@@ -1980,7 +1991,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43851</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43852</v>
       </c>
@@ -2134,7 +2145,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43853</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43854</v>
       </c>
@@ -2288,7 +2299,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43855</v>
       </c>
@@ -2365,7 +2376,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43856</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43857</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43858</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43859</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43860</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43861</v>
       </c>
@@ -2827,7 +2838,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43862</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43863</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43864</v>
       </c>
@@ -3058,7 +3069,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43865</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43866</v>
       </c>
@@ -3212,7 +3223,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43867</v>
       </c>
@@ -3289,7 +3300,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43868</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43869</v>
       </c>
@@ -3443,7 +3454,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43870</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43871</v>
       </c>
@@ -3597,7 +3608,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43872</v>
       </c>
@@ -3674,7 +3685,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43873</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43874</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43875</v>
       </c>
@@ -3905,7 +3916,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43876</v>
       </c>
@@ -3982,7 +3993,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43877</v>
       </c>
@@ -4059,7 +4070,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43878</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43879</v>
       </c>
@@ -4213,7 +4224,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43880</v>
       </c>
@@ -4290,7 +4301,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43881</v>
       </c>
@@ -4367,7 +4378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43882</v>
       </c>
@@ -4444,7 +4455,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43883</v>
       </c>
@@ -4521,7 +4532,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43884</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43885</v>
       </c>
@@ -4675,7 +4686,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43886</v>
       </c>
@@ -4752,7 +4763,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43887</v>
       </c>
@@ -4829,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43888</v>
       </c>
@@ -4906,7 +4917,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43889</v>
       </c>
@@ -4983,7 +4994,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43890</v>
       </c>
@@ -5060,7 +5071,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43891</v>
       </c>
@@ -5137,7 +5148,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43892</v>
       </c>
@@ -5214,7 +5225,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43893</v>
       </c>
@@ -5291,7 +5302,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43894</v>
       </c>
@@ -5368,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43895</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43896</v>
       </c>
@@ -5522,7 +5533,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43897</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43898</v>
       </c>
@@ -5676,7 +5687,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43899</v>
       </c>
@@ -5753,7 +5764,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43900</v>
       </c>
@@ -5830,7 +5841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43901</v>
       </c>
@@ -5907,7 +5918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43902</v>
       </c>
@@ -5984,7 +5995,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43903</v>
       </c>
@@ -6061,7 +6072,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43904</v>
       </c>
@@ -6138,7 +6149,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43905</v>
       </c>
@@ -6215,7 +6226,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43906</v>
       </c>
@@ -6292,7 +6303,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43907</v>
       </c>
@@ -6369,7 +6380,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43908</v>
       </c>
@@ -6446,7 +6457,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43909</v>
       </c>
@@ -6523,7 +6534,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43910</v>
       </c>
@@ -6600,7 +6611,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43911</v>
       </c>
@@ -6677,7 +6688,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43912</v>
       </c>
@@ -6754,7 +6765,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43913</v>
       </c>
@@ -6831,7 +6842,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43914</v>
       </c>
@@ -6908,7 +6919,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43915</v>
       </c>
@@ -6985,7 +6996,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43916</v>
       </c>
@@ -7062,7 +7073,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43917</v>
       </c>
@@ -7139,7 +7150,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43918</v>
       </c>
@@ -7216,7 +7227,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43919</v>
       </c>
@@ -7293,7 +7304,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43920</v>
       </c>
@@ -7370,7 +7381,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43921</v>
       </c>
@@ -7447,7 +7458,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -7473,7 +7484,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -7485,7 +7496,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -7516,7 +7527,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -7547,7 +7558,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -7578,7 +7589,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -7609,7 +7620,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -7639,7 +7650,7 @@
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -7669,7 +7680,7 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -7700,7 +7711,7 @@
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -7730,7 +7741,7 @@
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -7760,7 +7771,7 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
@@ -7790,7 +7801,7 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -7821,7 +7832,7 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7852,7 +7863,7 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -7883,7 +7894,7 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -7914,7 +7925,7 @@
       <c r="AB108" s="8"/>
       <c r="AC108" s="8"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -7945,7 +7956,7 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -7976,7 +7987,7 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="8"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -8007,7 +8018,7 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -8038,7 +8049,7 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -8069,7 +8080,7 @@
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -8100,7 +8111,7 @@
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -8131,7 +8142,7 @@
       <c r="AB115" s="8"/>
       <c r="AC115" s="8"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -8162,7 +8173,7 @@
       <c r="AB116" s="8"/>
       <c r="AC116" s="8"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -8193,7 +8204,7 @@
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -8224,7 +8235,7 @@
       <c r="AB118" s="8"/>
       <c r="AC118" s="8"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -8255,7 +8266,7 @@
       <c r="AB119" s="8"/>
       <c r="AC119" s="8"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -8286,7 +8297,7 @@
       <c r="AB120" s="8"/>
       <c r="AC120" s="8"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -8317,7 +8328,7 @@
       <c r="AB121" s="8"/>
       <c r="AC121" s="8"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -8348,7 +8359,7 @@
       <c r="AB122" s="8"/>
       <c r="AC122" s="8"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -8379,7 +8390,7 @@
       <c r="AB123" s="8"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -8410,7 +8421,7 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -8441,7 +8452,7 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -8472,7 +8483,7 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -8503,7 +8514,7 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -8534,7 +8545,7 @@
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -8565,7 +8576,7 @@
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -8596,7 +8607,7 @@
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -8627,7 +8638,7 @@
       <c r="AB131" s="8"/>
       <c r="AC131" s="8"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -8658,7 +8669,7 @@
       <c r="AB132" s="8"/>
       <c r="AC132" s="8"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -8689,7 +8700,7 @@
       <c r="AB133" s="8"/>
       <c r="AC133" s="8"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -8720,7 +8731,7 @@
       <c r="AB134" s="8"/>
       <c r="AC134" s="8"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -8751,7 +8762,7 @@
       <c r="AB135" s="8"/>
       <c r="AC135" s="8"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -8782,7 +8793,7 @@
       <c r="AB136" s="8"/>
       <c r="AC136" s="8"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -8813,7 +8824,7 @@
       <c r="AB137" s="8"/>
       <c r="AC137" s="8"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -8844,7 +8855,7 @@
       <c r="AB138" s="8"/>
       <c r="AC138" s="8"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -8875,7 +8886,7 @@
       <c r="AB139" s="8"/>
       <c r="AC139" s="8"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -8906,7 +8917,7 @@
       <c r="AB140" s="8"/>
       <c r="AC140" s="8"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -8937,7 +8948,7 @@
       <c r="AB141" s="8"/>
       <c r="AC141" s="8"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -8968,7 +8979,7 @@
       <c r="AB142" s="8"/>
       <c r="AC142" s="8"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -8999,7 +9010,7 @@
       <c r="AB143" s="8"/>
       <c r="AC143" s="8"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -9030,7 +9041,7 @@
       <c r="AB144" s="8"/>
       <c r="AC144" s="8"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -9061,7 +9072,7 @@
       <c r="AB145" s="8"/>
       <c r="AC145" s="8"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -9092,7 +9103,7 @@
       <c r="AB146" s="8"/>
       <c r="AC146" s="8"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -9123,7 +9134,7 @@
       <c r="AB147" s="8"/>
       <c r="AC147" s="8"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -9154,7 +9165,7 @@
       <c r="AB148" s="8"/>
       <c r="AC148" s="8"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -9185,7 +9196,7 @@
       <c r="AB149" s="8"/>
       <c r="AC149" s="8"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -9216,7 +9227,7 @@
       <c r="AB150" s="8"/>
       <c r="AC150" s="8"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -9247,7 +9258,7 @@
       <c r="AB151" s="8"/>
       <c r="AC151" s="8"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -9278,7 +9289,7 @@
       <c r="AB152" s="8"/>
       <c r="AC152" s="8"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -9309,7 +9320,7 @@
       <c r="AB153" s="8"/>
       <c r="AC153" s="8"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -9340,7 +9351,7 @@
       <c r="AB154" s="8"/>
       <c r="AC154" s="8"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -9371,7 +9382,7 @@
       <c r="AB155" s="8"/>
       <c r="AC155" s="8"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -9402,7 +9413,7 @@
       <c r="AB156" s="8"/>
       <c r="AC156" s="8"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -9433,7 +9444,7 @@
       <c r="AB157" s="8"/>
       <c r="AC157" s="8"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -9464,7 +9475,7 @@
       <c r="AB158" s="8"/>
       <c r="AC158" s="8"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -9495,7 +9506,7 @@
       <c r="AB159" s="8"/>
       <c r="AC159" s="8"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -9526,7 +9537,7 @@
       <c r="AB160" s="8"/>
       <c r="AC160" s="8"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -9557,7 +9568,7 @@
       <c r="AB161" s="8"/>
       <c r="AC161" s="8"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -9588,7 +9599,7 @@
       <c r="AB162" s="8"/>
       <c r="AC162" s="8"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -9619,7 +9630,7 @@
       <c r="AB163" s="8"/>
       <c r="AC163" s="8"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -9650,7 +9661,7 @@
       <c r="AB164" s="8"/>
       <c r="AC164" s="8"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -9681,7 +9692,7 @@
       <c r="AB165" s="8"/>
       <c r="AC165" s="8"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -9712,7 +9723,7 @@
       <c r="AB166" s="8"/>
       <c r="AC166" s="8"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -9743,7 +9754,7 @@
       <c r="AB167" s="8"/>
       <c r="AC167" s="8"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -9774,7 +9785,7 @@
       <c r="AB168" s="8"/>
       <c r="AC168" s="8"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -9805,7 +9816,7 @@
       <c r="AB169" s="8"/>
       <c r="AC169" s="8"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -9836,7 +9847,7 @@
       <c r="AB170" s="8"/>
       <c r="AC170" s="8"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -9867,7 +9878,7 @@
       <c r="AB171" s="8"/>
       <c r="AC171" s="8"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -9898,7 +9909,7 @@
       <c r="AB172" s="8"/>
       <c r="AC172" s="8"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -9929,7 +9940,7 @@
       <c r="AB173" s="8"/>
       <c r="AC173" s="8"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -9960,7 +9971,7 @@
       <c r="AB174" s="8"/>
       <c r="AC174" s="8"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -9991,7 +10002,7 @@
       <c r="AB175" s="8"/>
       <c r="AC175" s="8"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -10022,7 +10033,7 @@
       <c r="AB176" s="8"/>
       <c r="AC176" s="8"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -10053,7 +10064,7 @@
       <c r="AB177" s="8"/>
       <c r="AC177" s="8"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -10084,7 +10095,7 @@
       <c r="AB178" s="8"/>
       <c r="AC178" s="8"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -10115,7 +10126,7 @@
       <c r="AB179" s="8"/>
       <c r="AC179" s="8"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -10146,7 +10157,7 @@
       <c r="AB180" s="8"/>
       <c r="AC180" s="8"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -10177,7 +10188,7 @@
       <c r="AB181" s="8"/>
       <c r="AC181" s="8"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -10208,7 +10219,7 @@
       <c r="AB182" s="8"/>
       <c r="AC182" s="8"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -10239,7 +10250,7 @@
       <c r="AB183" s="8"/>
       <c r="AC183" s="8"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -10270,7 +10281,7 @@
       <c r="AB184" s="8"/>
       <c r="AC184" s="8"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>

--- a/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
+++ b/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
@@ -345,7 +345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,8 +439,8 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="Z1" s="3">
-        <f>MAX(B2:Y92)</f>
-        <v>25.2</v>
+        <f>MIN(B2:Y92)</f>
+        <v>0.3</v>
       </c>
       <c r="AA1" s="3">
         <f>AVERAGE(B2:Y92)</f>
@@ -448,7 +448,7 @@
       </c>
       <c r="AB1" s="3">
         <f>Z1-AA1</f>
-        <v>14.734661172161179</v>
+        <v>-10.16533882783882</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">

--- a/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
+++ b/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
@@ -345,7 +345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +356,7 @@
   <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,12 +443,12 @@
         <v>0.3</v>
       </c>
       <c r="AA1" s="3">
-        <f>AVERAGE(B2:Y92)</f>
-        <v>10.465338827838821</v>
+        <f>MAX(B2:Y92)</f>
+        <v>25.2</v>
       </c>
       <c r="AB1" s="3">
-        <f>Z1-AA1</f>
-        <v>-10.16533882783882</v>
+        <f>AA1-Z1</f>
+        <v>24.9</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">

--- a/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
+++ b/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
@@ -77,7 +77,38 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -345,7 +376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +387,7 @@
   <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,16 +470,16 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="Z1" s="3">
-        <f>MIN(B2:Y92)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AA1" s="3">
         <f>MAX(B2:Y92)</f>
         <v>25.2</v>
       </c>
+      <c r="AA1" s="3">
+        <f>LARGE(B2:Y92,2)</f>
+        <v>19.899999999999999</v>
+      </c>
       <c r="AB1" s="3">
-        <f>AA1-Z1</f>
-        <v>24.9</v>
+        <f>Z1-AA1</f>
+        <v>5.3000000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -10313,6 +10344,18 @@
       <c r="AC185" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Z1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>20</formula>
+      <formula>25.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>20</formula>
+      <formula>25.2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
+++ b/krilov/files/9/9 варианты 5, 7, 9, 11, 13, 15, 17, 19.xlsx
@@ -77,17 +77,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -376,7 +366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,16 +460,16 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="Z1" s="3">
-        <f>MAX(B2:Y92)</f>
-        <v>25.2</v>
+        <f>MIN(B2:Y92)</f>
+        <v>0.3</v>
       </c>
       <c r="AA1" s="3">
-        <f>LARGE(B2:Y92,2)</f>
-        <v>19.899999999999999</v>
+        <f>SMALL(B2:Y92,2)</f>
+        <v>1.3</v>
       </c>
       <c r="AB1" s="3">
         <f>Z1-AA1</f>
-        <v>5.3000000000000007</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
@@ -10345,7 +10335,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z1">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>20</formula>
       <formula>25.2</formula>
     </cfRule>
